--- a/COM1024/Temp Test COM1022/Excel/Ass Hoan thien.xlsx
+++ b/COM1024/Temp Test COM1022/Excel/Ass Hoan thien.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách" sheetId="1" r:id="rId1"/>
@@ -13,15 +13,16 @@
     <sheet name="Bảng phụ" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Danh sách'!$A$5:$I$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Danh sách'!$A$5:$I$62</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Điểm!$A$5:$N$11</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="224">
   <si>
     <t>TRƯỜNG CAO ĐẲNG THỰC HÀNH FPT</t>
   </si>
@@ -690,6 +691,9 @@
   </si>
   <si>
     <t>PS00002</t>
+  </si>
+  <si>
+    <t>0987654321</t>
   </si>
 </sst>
 </file>
@@ -1886,7 +1890,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1940,6 +1944,7 @@
     <xf numFmtId="0" fontId="41" fillId="57" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="246">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2189,167 +2194,7 @@
     <cellStyle name="Warning Text 3" xfId="170"/>
     <cellStyle name="Warning Text 4" xfId="95"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2446,6 +2291,233 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Thống kê'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tổng số</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Thống kê'!$A$7:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Tốt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Khá</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Trung bình</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Yếu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Kém</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Thống kê'!$B$7:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Thống kê'!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hồ Chí Minh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Thống kê'!$A$7:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Tốt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Khá</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Trung bình</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Yếu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Kém</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Thống kê'!$D$7:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2735,10 +2807,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2812,7 +2885,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -2839,7 +2912,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -2866,7 +2939,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -2893,7 +2966,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -2920,7 +2993,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -2947,7 +3020,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
@@ -2974,7 +3047,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
@@ -3001,7 +3074,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -3028,7 +3101,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -3055,7 +3128,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -3082,7 +3155,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -3131,12 +3204,14 @@
       <c r="G17" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="25" t="s">
+        <v>223</v>
+      </c>
       <c r="I17" s="13">
         <v>4800000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -3163,7 +3238,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -3190,7 +3265,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -3217,7 +3292,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -3244,7 +3319,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -3271,7 +3346,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -3298,7 +3373,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -3325,7 +3400,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -3352,7 +3427,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -3379,7 +3454,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -3406,7 +3481,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -3433,7 +3508,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>24</v>
       </c>
@@ -3460,7 +3535,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -3487,7 +3562,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>26</v>
       </c>
@@ -3514,7 +3589,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>27</v>
       </c>
@@ -3541,7 +3616,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>28</v>
       </c>
@@ -3568,7 +3643,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>29</v>
       </c>
@@ -3595,7 +3670,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>30</v>
       </c>
@@ -3622,7 +3697,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>31</v>
       </c>
@@ -3649,7 +3724,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>32</v>
       </c>
@@ -3676,7 +3751,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>33</v>
       </c>
@@ -3703,7 +3778,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>34</v>
       </c>
@@ -3730,7 +3805,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>35</v>
       </c>
@@ -3757,7 +3832,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>36</v>
       </c>
@@ -3784,7 +3859,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>37</v>
       </c>
@@ -3811,7 +3886,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>38</v>
       </c>
@@ -3838,7 +3913,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>39</v>
       </c>
@@ -3865,7 +3940,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>40</v>
       </c>
@@ -3892,7 +3967,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>41</v>
       </c>
@@ -3919,7 +3994,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>42</v>
       </c>
@@ -3946,7 +4021,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43</v>
       </c>
@@ -3973,7 +4048,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>44</v>
       </c>
@@ -4000,7 +4075,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>45</v>
       </c>
@@ -4027,7 +4102,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>46</v>
       </c>
@@ -4054,7 +4129,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>47</v>
       </c>
@@ -4081,7 +4156,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>48</v>
       </c>
@@ -4108,7 +4183,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>49</v>
       </c>
@@ -4135,7 +4210,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>50</v>
       </c>
@@ -4162,7 +4237,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>51</v>
       </c>
@@ -4189,7 +4264,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>52</v>
       </c>
@@ -4216,7 +4291,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>53</v>
       </c>
@@ -4243,7 +4318,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>54</v>
       </c>
@@ -4270,7 +4345,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>55</v>
       </c>
@@ -4297,7 +4372,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>56</v>
       </c>
@@ -4324,7 +4399,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>57</v>
       </c>
@@ -4352,18 +4427,33 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:I11"/>
+  <autoFilter ref="A5:I62">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Lê Ánh Thảo"/>
+        <filter val="Lê Chí Thọ"/>
+        <filter val="Lê Quang Minh"/>
+        <filter val="Lê Thị Quỳnh Trang"/>
+        <filter val="Nguyễn Thị Hồng Lê"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Quang Trung - Hải Châu - Đà Nẵng"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="C13:C47">
-    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C62">
-    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B62">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -4375,9 +4465,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4390,8 +4480,9 @@
     <col min="6" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="15.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -4502,12 +4593,29 @@
       <c r="I6" s="2">
         <v>8</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="J6" s="13">
+        <f>AVERAGE(E6:I6)</f>
+        <v>8.1</v>
+      </c>
+      <c r="K6" s="4" t="str">
+        <f>IF(J6&lt;5,"yếu",IF(J6&lt;7,"TB",IF(J6&lt;8,"KHÁ","GIỎI")))</f>
+        <v>GIỎI</v>
+      </c>
+      <c r="L6" s="4">
+        <f>RANK(J6,$J$6:$J$62)</f>
+        <v>4</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f>IF(AND(J6&gt;8,M6="Tốt"),"Học Bổng","")</f>
+        <v>Học Bổng</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f>VLOOKUP(LEFT(B6,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Hà  Nội</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -4537,12 +4645,29 @@
       <c r="I7" s="2">
         <v>8</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="J7" s="13">
+        <f t="shared" ref="J7:J62" si="0">AVERAGE(E7:I7)</f>
+        <v>7.8</v>
+      </c>
+      <c r="K7" s="4" t="str">
+        <f t="shared" ref="K7:K62" si="1">IF(J7&lt;5,"yếu",IF(J7&lt;7,"TB",IF(J7&lt;8,"KHÁ","GIỎI")))</f>
+        <v>KHÁ</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" ref="L7:L62" si="2">RANK(J7,$J$6:$J$62)</f>
+        <v>7</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="2" t="str">
+        <f t="shared" ref="N7:N62" si="3">IF(AND(J7&gt;8,M7="Tốt"),"Học Bổng","")</f>
+        <v/>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f>VLOOKUP(LEFT(B7,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Hà  Nội</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -4572,12 +4697,29 @@
       <c r="I8" s="2">
         <v>8</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="J8" s="13">
+        <f t="shared" si="0"/>
+        <v>8.08</v>
+      </c>
+      <c r="K8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>GIỎI</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Học Bổng</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f>VLOOKUP(LEFT(B8,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Hà  Nội</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -4607,12 +4749,29 @@
       <c r="I9" s="2">
         <v>8</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="J9" s="13">
+        <f t="shared" si="0"/>
+        <v>6.9</v>
+      </c>
+      <c r="K9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f>VLOOKUP(LEFT(B9,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Hà  Nội</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -4642,12 +4801,29 @@
       <c r="I10" s="2">
         <v>8</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="J10" s="13">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="K10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f>VLOOKUP(LEFT(B10,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Hà  Nội</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -4677,12 +4853,29 @@
       <c r="I11" s="2">
         <v>7.5</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="J11" s="13">
+        <f t="shared" si="0"/>
+        <v>6.8400000000000007</v>
+      </c>
+      <c r="K11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f>VLOOKUP(LEFT(B11,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Hà  Nội</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -4712,12 +4905,29 @@
       <c r="I12" s="2">
         <v>9</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="J12" s="13">
+        <f t="shared" si="0"/>
+        <v>8.6</v>
+      </c>
+      <c r="K12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>GIỎI</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Học Bổng</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f>VLOOKUP(LEFT(B12,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>TP. Hồ Chí Minh</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -4747,12 +4957,29 @@
       <c r="I13" s="2">
         <v>8</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="J13" s="13">
+        <f t="shared" si="0"/>
+        <v>7.8</v>
+      </c>
+      <c r="K13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O13" s="2" t="str">
+        <f>VLOOKUP(LEFT(B13,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>TP. Hồ Chí Minh</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -4782,12 +5009,29 @@
       <c r="I14" s="2">
         <v>8</v>
       </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="J14" s="13">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
+      </c>
+      <c r="K14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f>VLOOKUP(LEFT(B14,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -4817,12 +5061,29 @@
       <c r="I15" s="2">
         <v>7</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="J15" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f>VLOOKUP(LEFT(B15,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -4852,12 +5113,29 @@
       <c r="I16" s="2">
         <v>6</v>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="J16" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f>VLOOKUP(LEFT(B16,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -4887,12 +5165,29 @@
       <c r="I17" s="2">
         <v>7</v>
       </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="J17" s="13">
+        <f t="shared" si="0"/>
+        <v>7.94</v>
+      </c>
+      <c r="K17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f>VLOOKUP(LEFT(B17,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -4922,12 +5217,29 @@
       <c r="I18" s="2">
         <v>9</v>
       </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="J18" s="13">
+        <f t="shared" si="0"/>
+        <v>6.9</v>
+      </c>
+      <c r="K18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O18" s="2" t="str">
+        <f>VLOOKUP(LEFT(B18,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -4957,12 +5269,29 @@
       <c r="I19" s="2">
         <v>8</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="J19" s="13">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="K19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O19" s="2" t="str">
+        <f>VLOOKUP(LEFT(B19,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -4992,12 +5321,29 @@
       <c r="I20" s="2">
         <v>8</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="J20" s="13">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="K20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O20" s="2" t="str">
+        <f>VLOOKUP(LEFT(B20,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -5027,12 +5373,29 @@
       <c r="I21" s="2">
         <v>7</v>
       </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="J21" s="13">
+        <f t="shared" si="0"/>
+        <v>7.0400000000000009</v>
+      </c>
+      <c r="K21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O21" s="2" t="str">
+        <f>VLOOKUP(LEFT(B21,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -5062,12 +5425,29 @@
       <c r="I22" s="2">
         <v>7.5</v>
       </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="J22" s="13">
+        <f t="shared" si="0"/>
+        <v>7.8</v>
+      </c>
+      <c r="K22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O22" s="2" t="str">
+        <f>VLOOKUP(LEFT(B22,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -5097,12 +5477,29 @@
       <c r="I23" s="2">
         <v>8</v>
       </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="J23" s="13">
+        <f t="shared" si="0"/>
+        <v>7.6400000000000006</v>
+      </c>
+      <c r="K23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O23" s="2" t="str">
+        <f>VLOOKUP(LEFT(B23,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -5132,12 +5529,29 @@
       <c r="I24" s="22">
         <v>9</v>
       </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="J24" s="13">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
+      </c>
+      <c r="K24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O24" s="2" t="str">
+        <f>VLOOKUP(LEFT(B24,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -5167,12 +5581,29 @@
       <c r="I25" s="22">
         <v>7</v>
       </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="J25" s="13">
+        <f t="shared" si="0"/>
+        <v>6.94</v>
+      </c>
+      <c r="K25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N25" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O25" s="2" t="str">
+        <f>VLOOKUP(LEFT(B25,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -5202,12 +5633,29 @@
       <c r="I26" s="19">
         <v>6.5</v>
       </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="J26" s="13">
+        <f t="shared" si="0"/>
+        <v>6.76</v>
+      </c>
+      <c r="K26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N26" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O26" s="2" t="str">
+        <f>VLOOKUP(LEFT(B26,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -5237,12 +5685,29 @@
       <c r="I27" s="22">
         <v>8</v>
       </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="J27" s="13">
+        <f t="shared" si="0"/>
+        <v>7.0400000000000009</v>
+      </c>
+      <c r="K27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N27" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O27" s="2" t="str">
+        <f>VLOOKUP(LEFT(B27,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -5272,12 +5737,29 @@
       <c r="I28" s="22">
         <v>7.5</v>
       </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="J28" s="13">
+        <f t="shared" si="0"/>
+        <v>7.24</v>
+      </c>
+      <c r="K28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N28" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O28" s="2" t="str">
+        <f>VLOOKUP(LEFT(B28,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -5307,12 +5789,29 @@
       <c r="I29" s="22">
         <v>9</v>
       </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="J29" s="13">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="K29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N29" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O29" s="2" t="str">
+        <f>VLOOKUP(LEFT(B29,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -5342,12 +5841,29 @@
       <c r="I30" s="22">
         <v>5</v>
       </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="J30" s="13">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="K30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N30" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O30" s="2" t="str">
+        <f>VLOOKUP(LEFT(B30,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -5377,12 +5893,29 @@
       <c r="I31" s="22">
         <v>5.5</v>
       </c>
-      <c r="J31" s="13"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="J31" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N31" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O31" s="2" t="str">
+        <f>VLOOKUP(LEFT(B31,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -5412,12 +5945,29 @@
       <c r="I32" s="22">
         <v>6</v>
       </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="J32" s="13">
+        <f t="shared" si="0"/>
+        <v>6.44</v>
+      </c>
+      <c r="K32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N32" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O32" s="2" t="str">
+        <f>VLOOKUP(LEFT(B32,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -5447,12 +5997,29 @@
       <c r="I33" s="22">
         <v>6.7</v>
       </c>
-      <c r="J33" s="13"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="J33" s="13">
+        <f t="shared" si="0"/>
+        <v>6.74</v>
+      </c>
+      <c r="K33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N33" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O33" s="2" t="str">
+        <f>VLOOKUP(LEFT(B33,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -5482,12 +6049,29 @@
       <c r="I34" s="22">
         <v>9</v>
       </c>
-      <c r="J34" s="13"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="J34" s="13">
+        <f t="shared" si="0"/>
+        <v>7.58</v>
+      </c>
+      <c r="K34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N34" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O34" s="2" t="str">
+        <f>VLOOKUP(LEFT(B34,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -5517,12 +6101,29 @@
       <c r="I35" s="19">
         <v>6.5</v>
       </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="J35" s="13">
+        <f t="shared" si="0"/>
+        <v>6.4599999999999991</v>
+      </c>
+      <c r="K35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N35" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O35" s="2" t="str">
+        <f>VLOOKUP(LEFT(B35,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -5552,12 +6153,29 @@
       <c r="I36" s="22">
         <v>6.5</v>
       </c>
-      <c r="J36" s="13"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="J36" s="13">
+        <f t="shared" si="0"/>
+        <v>6.3</v>
+      </c>
+      <c r="K36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N36" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O36" s="2" t="str">
+        <f>VLOOKUP(LEFT(B36,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
@@ -5587,12 +6205,29 @@
       <c r="I37" s="22">
         <v>7.5</v>
       </c>
-      <c r="J37" s="13"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="J37" s="13">
+        <f t="shared" si="0"/>
+        <v>6.9799999999999995</v>
+      </c>
+      <c r="K37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N37" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O37" s="2" t="str">
+        <f>VLOOKUP(LEFT(B37,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
@@ -5622,12 +6257,29 @@
       <c r="I38" s="22">
         <v>8</v>
       </c>
-      <c r="J38" s="13"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="J38" s="13">
+        <f t="shared" si="0"/>
+        <v>7.0200000000000005</v>
+      </c>
+      <c r="K38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N38" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O38" s="2" t="str">
+        <f>VLOOKUP(LEFT(B38,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
@@ -5657,12 +6309,29 @@
       <c r="I39" s="22">
         <v>6</v>
       </c>
-      <c r="J39" s="13"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="J39" s="13">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>GIỎI</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N39" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Học Bổng</v>
+      </c>
+      <c r="O39" s="2" t="str">
+        <f>VLOOKUP(LEFT(B39,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
@@ -5692,12 +6361,29 @@
       <c r="I40" s="22">
         <v>6.7</v>
       </c>
-      <c r="J40" s="13"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="J40" s="13">
+        <f t="shared" si="0"/>
+        <v>7.24</v>
+      </c>
+      <c r="K40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N40" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O40" s="2" t="str">
+        <f>VLOOKUP(LEFT(B40,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
@@ -5727,12 +6413,29 @@
       <c r="I41" s="22">
         <v>2</v>
       </c>
-      <c r="J41" s="13"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="J41" s="13">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+      <c r="K41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L41" s="4">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N41" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O41" s="2" t="str">
+        <f>VLOOKUP(LEFT(B41,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
@@ -5762,12 +6465,29 @@
       <c r="I42" s="22">
         <v>6</v>
       </c>
-      <c r="J42" s="13"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="J42" s="13">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="K42" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>yếu</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N42" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O42" s="2" t="str">
+        <f>VLOOKUP(LEFT(B42,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
@@ -5797,12 +6517,29 @@
       <c r="I43" s="22">
         <v>6.7</v>
       </c>
-      <c r="J43" s="13"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="J43" s="13">
+        <f t="shared" si="0"/>
+        <v>6.04</v>
+      </c>
+      <c r="K43" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L43" s="4">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N43" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O43" s="2" t="str">
+        <f>VLOOKUP(LEFT(B43,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
@@ -5832,12 +6569,29 @@
       <c r="I44" s="22">
         <v>5.8</v>
       </c>
-      <c r="J44" s="13"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="J44" s="13">
+        <f t="shared" si="0"/>
+        <v>6.38</v>
+      </c>
+      <c r="K44" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L44" s="4">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N44" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O44" s="2" t="str">
+        <f>VLOOKUP(LEFT(B44,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
@@ -5867,12 +6621,29 @@
       <c r="I45" s="19">
         <v>9</v>
       </c>
-      <c r="J45" s="13"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="J45" s="13">
+        <f t="shared" si="0"/>
+        <v>6.9</v>
+      </c>
+      <c r="K45" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L45" s="4">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N45" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O45" s="2" t="str">
+        <f>VLOOKUP(LEFT(B45,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
@@ -5902,12 +6673,29 @@
       <c r="I46" s="22">
         <v>6.5</v>
       </c>
-      <c r="J46" s="13"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="J46" s="13">
+        <f t="shared" si="0"/>
+        <v>6.8599999999999994</v>
+      </c>
+      <c r="K46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L46" s="4">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N46" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O46" s="2" t="str">
+        <f>VLOOKUP(LEFT(B46,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
@@ -5937,12 +6725,29 @@
       <c r="I47" s="22">
         <v>8</v>
       </c>
-      <c r="J47" s="13"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="J47" s="13">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="K47" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L47" s="4">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N47" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O47" s="2" t="str">
+        <f>VLOOKUP(LEFT(B47,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
@@ -5972,12 +6777,29 @@
       <c r="I48" s="22">
         <v>0</v>
       </c>
-      <c r="J48" s="13"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="J48" s="13">
+        <f t="shared" si="0"/>
+        <v>5.24</v>
+      </c>
+      <c r="K48" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L48" s="4">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N48" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O48" s="2" t="str">
+        <f>VLOOKUP(LEFT(B48,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
@@ -6007,12 +6829,29 @@
       <c r="I49" s="22">
         <v>6</v>
       </c>
-      <c r="J49" s="13"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="J49" s="13">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="K49" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L49" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N49" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O49" s="2" t="str">
+        <f>VLOOKUP(LEFT(B49,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
@@ -6042,12 +6881,29 @@
       <c r="I50" s="22">
         <v>6.7</v>
       </c>
-      <c r="J50" s="13"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="J50" s="13">
+        <f t="shared" si="0"/>
+        <v>8.24</v>
+      </c>
+      <c r="K50" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>GIỎI</v>
+      </c>
+      <c r="L50" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N50" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Học Bổng</v>
+      </c>
+      <c r="O50" s="2" t="str">
+        <f>VLOOKUP(LEFT(B50,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
@@ -6077,12 +6933,29 @@
       <c r="I51" s="19">
         <v>6.5</v>
       </c>
-      <c r="J51" s="13"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="J51" s="13">
+        <f t="shared" si="0"/>
+        <v>7.3</v>
+      </c>
+      <c r="K51" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L51" s="4">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N51" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O51" s="2" t="str">
+        <f>VLOOKUP(LEFT(B51,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
@@ -6112,12 +6985,29 @@
       <c r="I52" s="22">
         <v>6.5</v>
       </c>
-      <c r="J52" s="13"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="J52" s="13">
+        <f t="shared" si="0"/>
+        <v>7.4</v>
+      </c>
+      <c r="K52" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L52" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N52" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O52" s="2" t="str">
+        <f>VLOOKUP(LEFT(B52,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
@@ -6147,12 +7037,29 @@
       <c r="I53" s="22">
         <v>5.5</v>
       </c>
-      <c r="J53" s="13"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="J53" s="13">
+        <f t="shared" si="0"/>
+        <v>5.12</v>
+      </c>
+      <c r="K53" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L53" s="4">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N53" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O53" s="2" t="str">
+        <f>VLOOKUP(LEFT(B53,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
@@ -6182,12 +7089,29 @@
       <c r="I54" s="22">
         <v>6</v>
       </c>
-      <c r="J54" s="13"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="J54" s="13">
+        <f t="shared" si="0"/>
+        <v>6.76</v>
+      </c>
+      <c r="K54" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L54" s="4">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N54" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O54" s="2" t="str">
+        <f>VLOOKUP(LEFT(B54,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
@@ -6217,12 +7141,29 @@
       <c r="I55" s="22">
         <v>6.5</v>
       </c>
-      <c r="J55" s="13"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+      <c r="J55" s="13">
+        <f t="shared" si="0"/>
+        <v>7.7</v>
+      </c>
+      <c r="K55" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L55" s="4">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N55" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O55" s="2" t="str">
+        <f>VLOOKUP(LEFT(B55,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
@@ -6252,12 +7193,29 @@
       <c r="I56" s="22">
         <v>9</v>
       </c>
-      <c r="J56" s="13"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="J56" s="13">
+        <f t="shared" si="0"/>
+        <v>7.1</v>
+      </c>
+      <c r="K56" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L56" s="4">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N56" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O56" s="2" t="str">
+        <f>VLOOKUP(LEFT(B56,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
@@ -6287,12 +7245,29 @@
       <c r="I57" s="22">
         <v>9</v>
       </c>
-      <c r="J57" s="13"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="J57" s="13">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="K57" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L57" s="4">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N57" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O57" s="2" t="str">
+        <f>VLOOKUP(LEFT(B57,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6322,12 +7297,29 @@
       <c r="I58" s="22">
         <v>9</v>
       </c>
-      <c r="J58" s="13"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+      <c r="J58" s="13">
+        <f t="shared" si="0"/>
+        <v>7.8</v>
+      </c>
+      <c r="K58" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L58" s="4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N58" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O58" s="2" t="str">
+        <f>VLOOKUP(LEFT(B58,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -6357,12 +7349,29 @@
       <c r="I59" s="22">
         <v>6.7</v>
       </c>
-      <c r="J59" s="13"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+      <c r="J59" s="13">
+        <f t="shared" si="0"/>
+        <v>7.38</v>
+      </c>
+      <c r="K59" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L59" s="4">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N59" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O59" s="2" t="str">
+        <f>VLOOKUP(LEFT(B59,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
@@ -6392,12 +7401,29 @@
       <c r="I60" s="19">
         <v>6.5</v>
       </c>
-      <c r="J60" s="13"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="J60" s="13">
+        <f t="shared" si="0"/>
+        <v>6.6599999999999993</v>
+      </c>
+      <c r="K60" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L60" s="4">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N60" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O60" s="2" t="str">
+        <f>VLOOKUP(LEFT(B60,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
@@ -6427,12 +7453,29 @@
       <c r="I61" s="22">
         <v>9</v>
       </c>
-      <c r="J61" s="13"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+      <c r="J61" s="13">
+        <f t="shared" si="0"/>
+        <v>6.9</v>
+      </c>
+      <c r="K61" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TB</v>
+      </c>
+      <c r="L61" s="4">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N61" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O61" s="2" t="str">
+        <f>VLOOKUP(LEFT(B61,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
     <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
@@ -6462,27 +7505,49 @@
       <c r="I62" s="22">
         <v>5.5</v>
       </c>
-      <c r="J62" s="13"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="J62" s="13">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="K62" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>KHÁ</v>
+      </c>
+      <c r="L62" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N62" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O62" s="2" t="str">
+        <f>VLOOKUP(LEFT(B62,2),'Bảng phụ'!$A$2:$B$7,2,0)</f>
+        <v>Quảng Ninh</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A5:N11"/>
   <conditionalFormatting sqref="C13:C47">
-    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C62">
-    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B62">
-    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M62">
+      <formula1>"Tốt, Khá, Trung Bình, Yếu"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6494,7 +7559,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6564,7 +7629,9 @@
       <c r="A7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
         <v>5</v>
@@ -6578,7 +7645,9 @@
       <c r="A8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
         <v>6</v>
@@ -6592,7 +7661,9 @@
       <c r="A9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>7</v>
@@ -6606,7 +7677,9 @@
       <c r="A10" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
         <v>5</v>
@@ -6620,7 +7693,9 @@
       <c r="A11" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>45</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
         <v>2</v>
@@ -6634,6 +7709,7 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
